--- a/biology/Zoologie/Anabate_à_bec_noir/Anabate_à_bec_noir.xlsx
+++ b/biology/Zoologie/Anabate_à_bec_noir/Anabate_à_bec_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_bec_noir</t>
+          <t>Anabate_à_bec_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thripadectes melanorhynchus
 L’Anabate à bec noir (Thripadectes melanorhynchus) est une espèce d'oiseaux de la famille des Furnariidae. Son aire de répartition se répand à travers la moitié nord des Andes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_bec_noir</t>
+          <t>Anabate_à_bec_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Thripadectes melanorhynchus a été décrite pour la première fois en 1844 par le naturaliste et explorateur suisse Johann Jakob von Tschudi (1818-1889) sous le protonyme Anabates melanorhynchus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Thripadectes melanorhynchus a été décrite pour la première fois en 1844 par le naturaliste et explorateur suisse Johann Jakob von Tschudi (1818-1889) sous le protonyme Anabates melanorhynchus.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_bec_noir</t>
+          <t>Anabate_à_bec_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Thripadectes melanorhynchus striaticeps (Sclater, PL &amp; Salvin, 1875)
 sous-espèce Thripadectes melanorhynchus melanorhynchus (Tschudi, 1844)</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_bec_noir</t>
+          <t>Anabate_à_bec_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>J. J. von Tschudi, Untersuchungen über die Fauna Peruana, 1844, 316 p. (OCLC 12186113, DOI 10.5962/BHL.TITLE.60791, lire en ligne)</t>
         </is>
